--- a/doc/doc.xlsx
+++ b/doc/doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kazuaki\Git\LightSpeedC\gce-relay\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9948FF93-D24F-4267-B0DB-23A8E5DB4929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6BF2DB-FB90-4A8F-8222-048C181EF524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="708" yWindow="744" windowWidth="21900" windowHeight="10812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
   <si>
     <t>localServices</t>
     <phoneticPr fontId="1"/>
@@ -1213,10 +1213,6 @@
     </r>
   </si>
   <si>
-    <t>[3000]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>rpc</t>
     </r>
@@ -1380,10 +1376,6 @@
     </r>
   </si>
   <si>
-    <t>[3010]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>soc</t>
     </r>
@@ -1434,21 +1426,9 @@
     </r>
   </si>
   <si>
-    <t>[3020]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>'send'</t>
   </si>
   <si>
-    <t>[3030]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[3040]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>obj</t>
     </r>
@@ -1535,10 +1515,6 @@
     </r>
   </si>
   <si>
-    <t>[3050]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>rpc</t>
     </r>
@@ -1666,10 +1642,6 @@
     </r>
   </si>
   <si>
-    <t>[3200]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>rpc</t>
     </r>
@@ -1815,10 +1787,6 @@
     </r>
   </si>
   <si>
-    <t>[3210]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>'send2'</t>
   </si>
   <si>
@@ -1900,10 +1868,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[3220]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>func</t>
     </r>
@@ -1972,10 +1936,6 @@
     </r>
   </si>
   <si>
-    <t>[3230]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>func.resOK</t>
     </r>
@@ -2835,6 +2795,130 @@
   </si>
   <si>
     <t>L[2230]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L[3000]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L[3010]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C[3020]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C[3030]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R[3040]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R[3050]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C[3060]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>'send.ok'</t>
+  </si>
+  <si>
+    <r>
+      <t>resOK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'send.ok.ok'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'C[3060]'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, ...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>relayOptions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>})</t>
+    </r>
+  </si>
+  <si>
+    <t>R[3200]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C[3220]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C[3210]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L[3230]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3392,15 +3476,15 @@
   <dimension ref="C1:AD139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="4:30" ht="18.600000000000001" thickBot="1">
       <c r="D1" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
@@ -3409,7 +3493,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="18"/>
       <c r="N1" s="16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
@@ -3418,7 +3502,7 @@
       <c r="S1" s="17"/>
       <c r="T1" s="18"/>
       <c r="X1" s="16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="Y1" s="17"/>
       <c r="Z1" s="17"/>
@@ -3599,10 +3683,10 @@
     </row>
     <row r="18" spans="3:24">
       <c r="D18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="X18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="3:24">
@@ -3615,7 +3699,7 @@
     </row>
     <row r="20" spans="3:24">
       <c r="N20" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="3:24">
@@ -3635,38 +3719,38 @@
     </row>
     <row r="25" spans="3:24">
       <c r="N25" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="3:24">
       <c r="N26" s="13" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="3:24">
       <c r="N27" s="13" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="3:24">
       <c r="D28" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="X28" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="3:24">
       <c r="N30" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="3:24">
       <c r="D31" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="X31" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="3:4">
@@ -3676,7 +3760,7 @@
     </row>
     <row r="34" spans="3:4">
       <c r="D34" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="3:4">
@@ -3686,12 +3770,12 @@
     </row>
     <row r="37" spans="3:4">
       <c r="D37" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="3:4">
       <c r="D39" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="3:4">
@@ -3701,12 +3785,12 @@
     </row>
     <row r="42" spans="3:4">
       <c r="D42" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="3:4">
       <c r="D45" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="3:4">
@@ -3721,7 +3805,7 @@
     </row>
     <row r="49" spans="4:14">
       <c r="N49" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="4:14">
@@ -3736,12 +3820,12 @@
     </row>
     <row r="53" spans="4:14">
       <c r="N53" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="4:14">
       <c r="N54" s="19" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="4:14">
@@ -3751,7 +3835,7 @@
     </row>
     <row r="57" spans="4:14">
       <c r="D57" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="4:14">
@@ -3761,27 +3845,27 @@
     </row>
     <row r="62" spans="4:14">
       <c r="N62" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="4:14">
       <c r="N63" s="12" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="4:14">
       <c r="N64" s="12" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="14:24">
       <c r="N65" s="13" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="14:24">
       <c r="X67" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="14:24">
@@ -3796,7 +3880,7 @@
     </row>
     <row r="71" spans="14:24">
       <c r="X71" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="14:24">
@@ -3806,17 +3890,17 @@
     </row>
     <row r="74" spans="14:24">
       <c r="X74" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="14:24">
       <c r="X75" s="12" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="14:24">
       <c r="X77" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="14:24">
@@ -3831,7 +3915,7 @@
     </row>
     <row r="81" spans="4:14">
       <c r="N81" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="4:14">
@@ -3846,17 +3930,17 @@
     </row>
     <row r="85" spans="4:14">
       <c r="N85" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="4:14">
       <c r="N86" s="13" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="4:14">
       <c r="D88" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="4:14">
@@ -3876,112 +3960,127 @@
     </row>
     <row r="97" spans="4:14">
       <c r="D97" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="4:14">
       <c r="D98" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="4:14">
       <c r="D100" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101" spans="4:14">
       <c r="D101" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="4:14">
       <c r="D102" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="4:14">
       <c r="N105" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" spans="4:14">
       <c r="N106" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="4:14">
       <c r="N107" s="11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="4:14">
       <c r="N109" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110" spans="4:14">
       <c r="N110" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="113" spans="24:24">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="14:24">
       <c r="X113" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="14:24">
+      <c r="X114" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="14:24">
+      <c r="X116" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="117" spans="14:24">
+      <c r="X117" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="14:24">
+      <c r="X118" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="14:24">
+      <c r="N120" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="121" spans="14:24">
+      <c r="N121" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="122" spans="14:24">
+      <c r="N122" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="14:24">
+      <c r="X125" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="126" spans="14:24">
+      <c r="X126" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127" spans="14:24">
+      <c r="X127" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128" spans="14:24">
+      <c r="X128" s="11" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="114" spans="24:24">
-      <c r="X114" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="116" spans="24:24">
-      <c r="X116" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="117" spans="24:24">
-      <c r="X117" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="118" spans="24:24">
-      <c r="X118" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="125" spans="24:24">
-      <c r="X125" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="126" spans="24:24">
-      <c r="X126" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="127" spans="24:24">
-      <c r="X127" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="128" spans="24:24">
-      <c r="X128" s="11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="130" spans="4:14">
       <c r="N130" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
     </row>
     <row r="131" spans="4:14">
       <c r="N131" s="9" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132" spans="4:14">
       <c r="N132" s="11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="4:14">
@@ -3991,22 +4090,22 @@
     </row>
     <row r="134" spans="4:14">
       <c r="N134" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
     </row>
     <row r="135" spans="4:14">
       <c r="N135" s="13" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138" spans="4:14">
       <c r="D138" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
     </row>
     <row r="139" spans="4:14">
       <c r="D139" s="9" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
